--- a/kit_pinout.xlsx
+++ b/kit_pinout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Storage\Skola\2020-2022_VUT\predmety\DP\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matejponcak/repos/dp/pico-kit-pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E15D0A-F729-2F4E-8308-D33649C976DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>GP0</t>
   </si>
@@ -184,12 +185,15 @@
   </si>
   <si>
     <t>LED2/SPI TX</t>
+  </si>
+  <si>
+    <t>POTENTIOMETER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +243,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,12 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -537,16 +555,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -563,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>45</v>
       </c>
@@ -580,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -636,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -656,7 +674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>36</v>
       </c>
@@ -690,7 +708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>37</v>
       </c>
@@ -710,7 +728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -730,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -750,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -764,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -784,7 +802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -804,7 +822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -824,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -844,7 +862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -878,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -904,21 +922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -934,8 +952,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -951,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -982,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -1029,11 +1047,11 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1065,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1063,12 +1081,12 @@
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="H9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1083,12 +1101,12 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1107,8 +1125,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1123,11 +1141,11 @@
       <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -1157,11 +1175,11 @@
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1221,7 +1239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>

--- a/kit_pinout.xlsx
+++ b/kit_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matejponcak/repos/dp/pico-kit-pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E15D0A-F729-2F4E-8308-D33649C976DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972A919-4494-2541-986A-B507BD221A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>GP0</t>
   </si>
@@ -188,6 +188,51 @@
   </si>
   <si>
     <t>POTENTIOMETER</t>
+  </si>
+  <si>
+    <t>ENC_SW</t>
+  </si>
+  <si>
+    <t>SPI_LOAD</t>
+  </si>
+  <si>
+    <t>LED3/L/I2S_LRCK</t>
+  </si>
+  <si>
+    <t>LED4/R/I2S_BCK</t>
+  </si>
+  <si>
+    <t>BUZZER/I2S_DIN</t>
+  </si>
+  <si>
+    <t>VGA_B0</t>
+  </si>
+  <si>
+    <t>VGA_B1/DVI_D0+</t>
+  </si>
+  <si>
+    <t>VGA_G0/DVI_D0-</t>
+  </si>
+  <si>
+    <t>VGA_G1/DVI_CLK+</t>
+  </si>
+  <si>
+    <t>VGA_G2/DVI_CLK-</t>
+  </si>
+  <si>
+    <t>VGA_R0/DVI_D2+</t>
+  </si>
+  <si>
+    <t>VGA_R1/DVI_D2-</t>
+  </si>
+  <si>
+    <t>VGA_R2/DVI_D1+</t>
+  </si>
+  <si>
+    <t>VGA_HSYNC/DVI_D1-</t>
+  </si>
+  <si>
+    <t>VGA_VSYNC</t>
   </si>
 </sst>
 </file>
@@ -212,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +294,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,14 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -926,17 +964,17 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -953,7 +991,7 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -984,7 +1022,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1001,7 +1039,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1018,7 +1056,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1032,7 +1070,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1048,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1066,7 +1104,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1086,7 +1124,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1102,12 +1140,12 @@
         <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>42</v>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1121,13 +1159,13 @@
       <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>43</v>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1160,8 +1198,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>41</v>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1180,8 +1218,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>33</v>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1195,13 +1233,13 @@
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H15" t="s">
-        <v>33</v>
+      <c r="H15" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>32</v>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1215,13 +1253,13 @@
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
-        <v>32</v>
+      <c r="H16" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>32</v>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1235,8 +1273,8 @@
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
-        <v>32</v>
+      <c r="H17" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -1254,8 +1292,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>32</v>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1269,13 +1307,13 @@
       <c r="G19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H19" t="s">
-        <v>32</v>
+      <c r="H19" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>32</v>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1289,8 +1327,8 @@
       <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
-        <v>32</v>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/kit_pinout.xlsx
+++ b/kit_pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matejponcak/repos/dp/pico-kit-pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972A919-4494-2541-986A-B507BD221A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B921A8A-68E8-554E-BC06-2954883E1F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="-16000" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -175,39 +175,12 @@
     <t>ENC_BUTTON</t>
   </si>
   <si>
-    <t>SPI RX</t>
-  </si>
-  <si>
-    <t>SPI CS</t>
-  </si>
-  <si>
     <t>LED1/SPI SCK</t>
   </si>
   <si>
-    <t>LED2/SPI TX</t>
-  </si>
-  <si>
     <t>POTENTIOMETER</t>
   </si>
   <si>
-    <t>ENC_SW</t>
-  </si>
-  <si>
-    <t>SPI_LOAD</t>
-  </si>
-  <si>
-    <t>LED3/L/I2S_LRCK</t>
-  </si>
-  <si>
-    <t>LED4/R/I2S_BCK</t>
-  </si>
-  <si>
-    <t>BUZZER/I2S_DIN</t>
-  </si>
-  <si>
-    <t>VGA_B0</t>
-  </si>
-  <si>
     <t>VGA_B1/DVI_D0+</t>
   </si>
   <si>
@@ -233,6 +206,33 @@
   </si>
   <si>
     <t>VGA_VSYNC</t>
+  </si>
+  <si>
+    <t>SPI RX (MISO)</t>
+  </si>
+  <si>
+    <t>SPI SD CS</t>
+  </si>
+  <si>
+    <t>LED2/SPI TX (MOSI)</t>
+  </si>
+  <si>
+    <t>LED3/PWM L/I2S_LRCK</t>
+  </si>
+  <si>
+    <t>LED4/PWM R/I2S_BCK</t>
+  </si>
+  <si>
+    <t>VGA_B0/ENC_SW</t>
+  </si>
+  <si>
+    <t>SPI EXPANDER CS</t>
+  </si>
+  <si>
+    <t>DAC_BUTTONS</t>
+  </si>
+  <si>
+    <t>PIEZO/I2S_DIN</t>
   </si>
 </sst>
 </file>
@@ -964,13 +964,13 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1120,12 +1120,12 @@
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1140,12 +1140,12 @@
         <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1234,12 +1234,12 @@
         <v>23</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1254,12 +1254,12 @@
         <v>25</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1274,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1308,12 +1308,12 @@
         <v>29</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1328,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
